--- a/biology/Botanique/Centre_de_recherches_sur_la_pomme_de_terre/Centre_de_recherches_sur_la_pomme_de_terre.xlsx
+++ b/biology/Botanique/Centre_de_recherches_sur_la_pomme_de_terre/Centre_de_recherches_sur_la_pomme_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Centre de recherches sur la pomme de terre (CRP) est un centre de recherche canadien consacré à la recherche  sur la pomme de terre principalement et sur d'autres cultures (petits fruits, plantes maraîchères...) secondairement. Situé à Fredericton au Nouveau-Brunswick, ce centre est l'un des dix-neuf centres de recherche fédéraux dépendants d'Agriculture et Agroalimentaire Canada (AAC), le ministère canadien de l'Agriculture.
 </t>
@@ -513,11 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Banque de gènes
-Le Centre de recherches sur la pomme de terre de Fredericton héberge une banque de gènes de pomme de terre qui conserve un ensemble de 120 variétés, y compris des variétés anciennes[1].
-Cet organisme édite une publication annuelle, le « Bulletin de la Banque de gènes de pomme de terre »[2].
-Variétés créées
-Depuis sa création, le Centre de recherches sur la pomme de terre de Fredericton a créé de nombreuses  variétés de pommes de terre dont 23 sont en production au Canada ou dans d'autres pays. Parmi celles-ci figurent notamment[3] :
+          <t>Banque de gènes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre de recherches sur la pomme de terre de Fredericton héberge une banque de gènes de pomme de terre qui conserve un ensemble de 120 variétés, y compris des variétés anciennes.
+Cet organisme édite une publication annuelle, le « Bulletin de la Banque de gènes de pomme de terre ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Centre_de_recherches_sur_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_de_recherches_sur_la_pomme_de_terre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variétés créées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Depuis sa création, le Centre de recherches sur la pomme de terre de Fredericton a créé de nombreuses  variétés de pommes de terre dont 23 sont en production au Canada ou dans d'autres pays. Parmi celles-ci figurent notamment :
 'Canso' (1951),
 'Keswick' (1951),
 'Fundy' (1958),
